--- a/branches/master/StructureDefinition-item-settings.xlsx
+++ b/branches/master/StructureDefinition-item-settings.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-13T17:04:45+00:00</t>
+    <t>2022-04-13T17:26:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-item-settings.xlsx
+++ b/branches/master/StructureDefinition-item-settings.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-13T17:26:31+00:00</t>
+    <t>2022-04-13T17:32:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-item-settings.xlsx
+++ b/branches/master/StructureDefinition-item-settings.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-13T17:32:05+00:00</t>
+    <t>2022-04-13T17:40:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-item-settings.xlsx
+++ b/branches/master/StructureDefinition-item-settings.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-13T17:40:16+00:00</t>
+    <t>2022-04-13T17:46:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-item-settings.xlsx
+++ b/branches/master/StructureDefinition-item-settings.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>1.0.0-S37</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-13T17:46:21+00:00</t>
+    <t>2022-04-13T18:50:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-item-settings.xlsx
+++ b/branches/master/StructureDefinition-item-settings.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-13T18:50:27+00:00</t>
+    <t>2022-04-13T18:56:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-item-settings.xlsx
+++ b/branches/master/StructureDefinition-item-settings.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-13T18:56:53+00:00</t>
+    <t>2022-04-13T18:59:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-item-settings.xlsx
+++ b/branches/master/StructureDefinition-item-settings.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-13T18:59:18+00:00</t>
+    <t>2022-04-13T20:17:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -105,7 +105,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
+    <t>http://science37.com/StructureDefinition/settings</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -362,13 +362,16 @@
     <t>label</t>
   </si>
   <si>
+    <t>OID</t>
+  </si>
+  <si>
+    <t>standardVariable</t>
+  </si>
+  <si>
     <t>variableName</t>
   </si>
   <si>
     <t>description</t>
-  </si>
-  <si>
-    <t>standardVariable</t>
   </si>
   <si>
     <t>fieldCode</t>
@@ -474,9 +477,6 @@
   </si>
   <si>
     <t>optionalPresets</t>
-  </si>
-  <si>
-    <t>foid</t>
   </si>
 </sst>
 </file>
@@ -2278,7 +2278,7 @@
         <v>87</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L15" t="s" s="2">
         <v>97</v>
@@ -2757,7 +2757,7 @@
         <v>85</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C20" t="s" s="2">
         <v>73</v>
@@ -3096,7 +3096,7 @@
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="R23" t="s" s="2">
         <v>73</v>
@@ -3261,7 +3261,7 @@
         <v>85</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C25" t="s" s="2">
         <v>73</v>
@@ -3286,7 +3286,7 @@
         <v>87</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L25" t="s" s="2">
         <v>97</v>
@@ -3600,7 +3600,7 @@
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="R28" t="s" s="2">
         <v>73</v>
@@ -3765,7 +3765,7 @@
         <v>85</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C30" t="s" s="2">
         <v>73</v>
@@ -3790,7 +3790,7 @@
         <v>87</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L30" t="s" s="2">
         <v>97</v>
@@ -4104,7 +4104,7 @@
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="R33" t="s" s="2">
         <v>73</v>
@@ -4269,7 +4269,7 @@
         <v>85</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C35" t="s" s="2">
         <v>73</v>
@@ -4294,7 +4294,7 @@
         <v>87</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L35" t="s" s="2">
         <v>97</v>
@@ -4608,7 +4608,7 @@
       </c>
       <c r="P38" s="2"/>
       <c r="Q38" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="R38" t="s" s="2">
         <v>73</v>
@@ -5197,7 +5197,7 @@
         <v>73</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>119</v>
+        <v>80</v>
       </c>
       <c r="K44" t="s" s="2">
         <v>108</v>
@@ -5277,7 +5277,7 @@
         <v>85</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C45" t="s" s="2">
         <v>73</v>
@@ -5302,7 +5302,7 @@
         <v>87</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L45" t="s" s="2">
         <v>97</v>
@@ -5616,7 +5616,7 @@
       </c>
       <c r="P48" s="2"/>
       <c r="Q48" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="R48" t="s" s="2">
         <v>73</v>
@@ -5701,7 +5701,7 @@
         <v>73</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K49" t="s" s="2">
         <v>108</v>
@@ -6205,7 +6205,7 @@
         <v>73</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K54" t="s" s="2">
         <v>108</v>
@@ -6285,7 +6285,7 @@
         <v>85</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C55" t="s" s="2">
         <v>73</v>
@@ -6310,7 +6310,7 @@
         <v>87</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L55" t="s" s="2">
         <v>97</v>
@@ -6624,7 +6624,7 @@
       </c>
       <c r="P58" s="2"/>
       <c r="Q58" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="R58" t="s" s="2">
         <v>73</v>
@@ -6709,7 +6709,7 @@
         <v>73</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K59" t="s" s="2">
         <v>108</v>
@@ -7213,7 +7213,7 @@
         <v>73</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K64" t="s" s="2">
         <v>108</v>
@@ -7717,7 +7717,7 @@
         <v>73</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="K69" t="s" s="2">
         <v>108</v>
@@ -8221,7 +8221,7 @@
         <v>73</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="K74" t="s" s="2">
         <v>108</v>
@@ -8504,14 +8504,14 @@
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>73</v>
@@ -8526,14 +8526,12 @@
         <v>87</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>88</v>
+        <v>28</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>90</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="M77" s="2"/>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
         <v>73</v>
@@ -8597,12 +8595,12 @@
         <v>77</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>84</v>
+        <v>73</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>128</v>
+        <v>100</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -8610,7 +8608,7 @@
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F78" t="s" s="2">
         <v>79</v>
@@ -8625,22 +8623,24 @@
         <v>73</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="M78" s="2"/>
+        <v>103</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>104</v>
+      </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
         <v>73</v>
       </c>
       <c r="P78" s="2"/>
       <c r="Q78" t="s" s="2">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="R78" t="s" s="2">
         <v>73</v>
@@ -8682,10 +8682,10 @@
         <v>73</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>79</v>
@@ -8697,23 +8697,23 @@
         <v>73</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>84</v>
+        <v>106</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>73</v>
@@ -8725,17 +8725,15 @@
         <v>73</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>90</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="M79" s="2"/>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
         <v>73</v>
@@ -8772,47 +8770,49 @@
         <v>73</v>
       </c>
       <c r="AA79" t="s" s="2">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="AB79" t="s" s="2">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="AC79" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD79" t="s" s="2">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>84</v>
+        <v>106</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="B80" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="B80" t="s" s="2">
+        <v>128</v>
+      </c>
       <c r="C80" t="s" s="2">
         <v>73</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F80" t="s" s="2">
         <v>79</v>
@@ -8827,17 +8827,15 @@
         <v>73</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>102</v>
+        <v>128</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>104</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="M80" s="2"/>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
         <v>73</v>
@@ -8886,27 +8884,27 @@
         <v>73</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>106</v>
+        <v>73</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>131</v>
+        <v>98</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -8929,13 +8927,13 @@
         <v>73</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>132</v>
+        <v>80</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -8986,7 +8984,7 @@
         <v>73</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>74</v>
@@ -8998,26 +8996,26 @@
         <v>73</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>111</v>
+        <v>73</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>106</v>
+        <v>84</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>73</v>
@@ -9029,16 +9027,16 @@
         <v>73</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
@@ -9046,7 +9044,7 @@
       </c>
       <c r="P82" s="2"/>
       <c r="Q82" t="s" s="2">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="R82" t="s" s="2">
         <v>73</v>
@@ -9076,39 +9074,39 @@
         <v>73</v>
       </c>
       <c r="AA82" t="s" s="2">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="AB82" t="s" s="2">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="AC82" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD82" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>106</v>
+        <v>84</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -9131,13 +9129,13 @@
         <v>73</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>132</v>
+        <v>80</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="M83" s="2"/>
       <c r="N83" s="2"/>
@@ -9188,7 +9186,7 @@
         <v>73</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>74</v>
@@ -9200,28 +9198,26 @@
         <v>73</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>111</v>
+        <v>73</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>106</v>
+        <v>84</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="B84" t="s" s="2">
-        <v>133</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F84" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="G84" t="s" s="2">
         <v>73</v>
@@ -9236,12 +9232,14 @@
         <v>87</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>133</v>
+        <v>88</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="M84" s="2"/>
+        <v>89</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>90</v>
+      </c>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
         <v>73</v>
@@ -9278,16 +9276,16 @@
         <v>73</v>
       </c>
       <c r="AA84" t="s" s="2">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="AB84" t="s" s="2">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="AC84" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD84" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AE84" t="s" s="2">
         <v>94</v>
@@ -9305,12 +9303,12 @@
         <v>77</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>73</v>
+        <v>84</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>98</v>
+        <v>131</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -9318,7 +9316,7 @@
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F85" t="s" s="2">
         <v>79</v>
@@ -9333,15 +9331,17 @@
         <v>73</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="M85" s="2"/>
+        <v>103</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>104</v>
+      </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
         <v>73</v>
@@ -9390,10 +9390,10 @@
         <v>73</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>79</v>
@@ -9405,12 +9405,12 @@
         <v>73</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>84</v>
+        <v>106</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>99</v>
+        <v>132</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -9421,7 +9421,7 @@
         <v>74</v>
       </c>
       <c r="F86" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G86" t="s" s="2">
         <v>73</v>
@@ -9433,13 +9433,13 @@
         <v>73</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>87</v>
+        <v>133</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>28</v>
+        <v>108</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
@@ -9478,34 +9478,34 @@
         <v>73</v>
       </c>
       <c r="AA86" t="s" s="2">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="AB86" t="s" s="2">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="AC86" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD86" t="s" s="2">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AH86" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>73</v>
+        <v>106</v>
       </c>
     </row>
     <row r="87">
@@ -9550,7 +9550,7 @@
       </c>
       <c r="P87" s="2"/>
       <c r="Q87" t="s" s="2">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="R87" t="s" s="2">
         <v>73</v>
@@ -9635,7 +9635,7 @@
         <v>73</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="K88" t="s" s="2">
         <v>108</v>
@@ -10139,7 +10139,7 @@
         <v>73</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="K93" t="s" s="2">
         <v>108</v>
@@ -10643,7 +10643,7 @@
         <v>73</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>119</v>
+        <v>80</v>
       </c>
       <c r="K98" t="s" s="2">
         <v>108</v>
@@ -11147,7 +11147,7 @@
         <v>73</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="K103" t="s" s="2">
         <v>108</v>
@@ -11756,7 +11756,7 @@
         <v>87</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>28</v>
+        <v>138</v>
       </c>
       <c r="L109" t="s" s="2">
         <v>97</v>
@@ -11934,14 +11934,14 @@
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="D111" s="2"/>
       <c r="E111" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F111" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G111" t="s" s="2">
         <v>73</v>
@@ -11956,14 +11956,12 @@
         <v>87</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>88</v>
+        <v>28</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="M111" t="s" s="2">
-        <v>90</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="M111" s="2"/>
       <c r="N111" s="2"/>
       <c r="O111" t="s" s="2">
         <v>73</v>
@@ -12027,12 +12025,12 @@
         <v>77</v>
       </c>
       <c r="AJ111" t="s" s="2">
-        <v>84</v>
+        <v>73</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>128</v>
+        <v>100</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -12040,7 +12038,7 @@
       </c>
       <c r="D112" s="2"/>
       <c r="E112" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F112" t="s" s="2">
         <v>79</v>
@@ -12055,22 +12053,24 @@
         <v>73</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="M112" s="2"/>
+        <v>103</v>
+      </c>
+      <c r="M112" t="s" s="2">
+        <v>104</v>
+      </c>
       <c r="N112" s="2"/>
       <c r="O112" t="s" s="2">
         <v>73</v>
       </c>
       <c r="P112" s="2"/>
       <c r="Q112" t="s" s="2">
-        <v>73</v>
+        <v>138</v>
       </c>
       <c r="R112" t="s" s="2">
         <v>73</v>
@@ -12112,10 +12112,10 @@
         <v>73</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>79</v>
@@ -12127,23 +12127,23 @@
         <v>73</v>
       </c>
       <c r="AJ112" t="s" s="2">
-        <v>84</v>
+        <v>106</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="D113" s="2"/>
       <c r="E113" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F113" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G113" t="s" s="2">
         <v>73</v>
@@ -12155,17 +12155,15 @@
         <v>73</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="M113" t="s" s="2">
-        <v>90</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="M113" s="2"/>
       <c r="N113" s="2"/>
       <c r="O113" t="s" s="2">
         <v>73</v>
@@ -12202,47 +12200,49 @@
         <v>73</v>
       </c>
       <c r="AA113" t="s" s="2">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="AB113" t="s" s="2">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="AC113" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD113" t="s" s="2">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG113" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AH113" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI113" t="s" s="2">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="AJ113" t="s" s="2">
-        <v>84</v>
+        <v>106</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="B114" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="B114" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="C114" t="s" s="2">
         <v>73</v>
       </c>
       <c r="D114" s="2"/>
       <c r="E114" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F114" t="s" s="2">
         <v>79</v>
@@ -12257,17 +12257,15 @@
         <v>73</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>102</v>
+        <v>28</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="M114" t="s" s="2">
-        <v>104</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="M114" s="2"/>
       <c r="N114" s="2"/>
       <c r="O114" t="s" s="2">
         <v>73</v>
@@ -12316,27 +12314,27 @@
         <v>73</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AG114" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AH114" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI114" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AJ114" t="s" s="2">
-        <v>106</v>
+        <v>73</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>131</v>
+        <v>98</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -12359,13 +12357,13 @@
         <v>73</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>132</v>
+        <v>80</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="M115" s="2"/>
       <c r="N115" s="2"/>
@@ -12416,7 +12414,7 @@
         <v>73</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>74</v>
@@ -12428,26 +12426,26 @@
         <v>73</v>
       </c>
       <c r="AI115" t="s" s="2">
-        <v>111</v>
+        <v>73</v>
       </c>
       <c r="AJ115" t="s" s="2">
-        <v>106</v>
+        <v>84</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="D116" s="2"/>
       <c r="E116" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F116" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="G116" t="s" s="2">
         <v>73</v>
@@ -12459,16 +12457,16 @@
         <v>73</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="N116" s="2"/>
       <c r="O116" t="s" s="2">
@@ -12476,7 +12474,7 @@
       </c>
       <c r="P116" s="2"/>
       <c r="Q116" t="s" s="2">
-        <v>138</v>
+        <v>73</v>
       </c>
       <c r="R116" t="s" s="2">
         <v>73</v>
@@ -12506,39 +12504,39 @@
         <v>73</v>
       </c>
       <c r="AA116" t="s" s="2">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="AB116" t="s" s="2">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="AC116" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD116" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AG116" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AH116" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI116" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AJ116" t="s" s="2">
-        <v>106</v>
+        <v>84</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
@@ -12561,13 +12559,13 @@
         <v>73</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>132</v>
+        <v>80</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="M117" s="2"/>
       <c r="N117" s="2"/>
@@ -12618,7 +12616,7 @@
         <v>73</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>74</v>
@@ -12630,28 +12628,26 @@
         <v>73</v>
       </c>
       <c r="AI117" t="s" s="2">
-        <v>111</v>
+        <v>73</v>
       </c>
       <c r="AJ117" t="s" s="2">
-        <v>106</v>
+        <v>84</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="B118" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="D118" s="2"/>
       <c r="E118" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F118" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="G118" t="s" s="2">
         <v>73</v>
@@ -12666,12 +12662,14 @@
         <v>87</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>139</v>
+        <v>88</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="M118" s="2"/>
+        <v>89</v>
+      </c>
+      <c r="M118" t="s" s="2">
+        <v>90</v>
+      </c>
       <c r="N118" s="2"/>
       <c r="O118" t="s" s="2">
         <v>73</v>
@@ -12708,16 +12706,16 @@
         <v>73</v>
       </c>
       <c r="AA118" t="s" s="2">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="AB118" t="s" s="2">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="AC118" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD118" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AE118" t="s" s="2">
         <v>94</v>
@@ -12735,12 +12733,12 @@
         <v>77</v>
       </c>
       <c r="AJ118" t="s" s="2">
-        <v>73</v>
+        <v>84</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>98</v>
+        <v>131</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -12748,7 +12746,7 @@
       </c>
       <c r="D119" s="2"/>
       <c r="E119" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F119" t="s" s="2">
         <v>79</v>
@@ -12763,15 +12761,17 @@
         <v>73</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="M119" s="2"/>
+        <v>103</v>
+      </c>
+      <c r="M119" t="s" s="2">
+        <v>104</v>
+      </c>
       <c r="N119" s="2"/>
       <c r="O119" t="s" s="2">
         <v>73</v>
@@ -12820,10 +12820,10 @@
         <v>73</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>79</v>
@@ -12835,12 +12835,12 @@
         <v>73</v>
       </c>
       <c r="AJ119" t="s" s="2">
-        <v>84</v>
+        <v>106</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>99</v>
+        <v>132</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -12851,7 +12851,7 @@
         <v>74</v>
       </c>
       <c r="F120" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G120" t="s" s="2">
         <v>73</v>
@@ -12863,13 +12863,13 @@
         <v>73</v>
       </c>
       <c r="J120" t="s" s="2">
-        <v>87</v>
+        <v>133</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>28</v>
+        <v>108</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="M120" s="2"/>
       <c r="N120" s="2"/>
@@ -12908,34 +12908,34 @@
         <v>73</v>
       </c>
       <c r="AA120" t="s" s="2">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="AB120" t="s" s="2">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="AC120" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD120" t="s" s="2">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="AF120" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG120" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AH120" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI120" t="s" s="2">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="AJ120" t="s" s="2">
-        <v>73</v>
+        <v>106</v>
       </c>
     </row>
     <row r="121">
@@ -13065,7 +13065,7 @@
         <v>73</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>80</v>
+        <v>133</v>
       </c>
       <c r="K122" t="s" s="2">
         <v>108</v>
@@ -13569,7 +13569,7 @@
         <v>73</v>
       </c>
       <c r="J127" t="s" s="2">
-        <v>122</v>
+        <v>80</v>
       </c>
       <c r="K127" t="s" s="2">
         <v>108</v>
@@ -14073,7 +14073,7 @@
         <v>73</v>
       </c>
       <c r="J132" t="s" s="2">
-        <v>80</v>
+        <v>123</v>
       </c>
       <c r="K132" t="s" s="2">
         <v>108</v>
@@ -14178,7 +14178,7 @@
         <v>87</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>28</v>
+        <v>142</v>
       </c>
       <c r="L133" t="s" s="2">
         <v>97</v>
@@ -14577,7 +14577,7 @@
         <v>73</v>
       </c>
       <c r="J137" t="s" s="2">
-        <v>122</v>
+        <v>80</v>
       </c>
       <c r="K137" t="s" s="2">
         <v>108</v>
@@ -14682,7 +14682,7 @@
         <v>87</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>143</v>
+        <v>28</v>
       </c>
       <c r="L138" t="s" s="2">
         <v>97</v>
@@ -15081,7 +15081,7 @@
         <v>73</v>
       </c>
       <c r="J142" t="s" s="2">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="K142" t="s" s="2">
         <v>108</v>
@@ -15585,7 +15585,7 @@
         <v>73</v>
       </c>
       <c r="J147" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K147" t="s" s="2">
         <v>108</v>
@@ -16089,7 +16089,7 @@
         <v>73</v>
       </c>
       <c r="J152" t="s" s="2">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K152" t="s" s="2">
         <v>108</v>
@@ -16593,7 +16593,7 @@
         <v>73</v>
       </c>
       <c r="J157" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K157" t="s" s="2">
         <v>108</v>
@@ -17097,7 +17097,7 @@
         <v>73</v>
       </c>
       <c r="J162" t="s" s="2">
-        <v>80</v>
+        <v>123</v>
       </c>
       <c r="K162" t="s" s="2">
         <v>108</v>
@@ -17601,7 +17601,7 @@
         <v>73</v>
       </c>
       <c r="J167" t="s" s="2">
-        <v>122</v>
+        <v>80</v>
       </c>
       <c r="K167" t="s" s="2">
         <v>108</v>
@@ -18105,7 +18105,7 @@
         <v>73</v>
       </c>
       <c r="J172" t="s" s="2">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="K172" t="s" s="2">
         <v>108</v>
@@ -18210,7 +18210,7 @@
         <v>87</v>
       </c>
       <c r="K173" t="s" s="2">
-        <v>28</v>
+        <v>150</v>
       </c>
       <c r="L173" t="s" s="2">
         <v>97</v>
@@ -18609,7 +18609,7 @@
         <v>73</v>
       </c>
       <c r="J177" t="s" s="2">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="K177" t="s" s="2">
         <v>108</v>
@@ -18811,7 +18811,7 @@
         <v>73</v>
       </c>
       <c r="J179" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K179" t="s" s="2">
         <v>108</v>

--- a/branches/master/StructureDefinition-item-settings.xlsx
+++ b/branches/master/StructureDefinition-item-settings.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5665" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5978" uniqueCount="154">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-13T20:17:19+00:00</t>
+    <t>2022-04-14T15:41:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -276,21 +276,11 @@
     <t>Extension.extension</t>
   </si>
   <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
     <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+    <t>An Extension</t>
   </si>
   <si>
     <t xml:space="preserve">value:url}
@@ -310,9 +300,6 @@
   </si>
   <si>
     <t>"title"*</t>
-  </si>
-  <si>
-    <t>An Extension</t>
   </si>
   <si>
     <t>Extension.extension.id</t>
@@ -412,6 +399,19 @@
     <t>toText</t>
   </si>
   <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
     <t>Extension.extension.extension.id</t>
   </si>
   <si>
@@ -477,6 +477,16 @@
   </si>
   <si>
     <t>optionalPresets</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id
+</t>
+  </si>
+  <si>
+    <t>subType</t>
   </si>
 </sst>
 </file>
@@ -781,7 +791,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ179"/>
+  <dimension ref="A1:AJ189"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1144,11 +1154,11 @@
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F4" t="s" s="2">
         <v>75</v>
@@ -1163,17 +1173,15 @@
         <v>73</v>
       </c>
       <c r="J4" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K4" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="L4" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="K4" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="M4" t="s" s="2">
-        <v>90</v>
-      </c>
+      <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
         <v>73</v>
@@ -1210,19 +1218,19 @@
         <v>73</v>
       </c>
       <c r="AA4" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AB4" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AC4" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD4" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AE4" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="AB4" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AC4" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD4" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AE4" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="AF4" t="s" s="2">
         <v>74</v>
@@ -1237,7 +1245,7 @@
         <v>77</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>84</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5">
@@ -1245,7 +1253,7 @@
         <v>85</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C5" t="s" s="2">
         <v>73</v>
@@ -1267,13 +1275,13 @@
         <v>73</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K5" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="L5" t="s" s="2">
         <v>87</v>
-      </c>
-      <c r="K5" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="L5" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -1324,7 +1332,7 @@
         <v>73</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>74</v>
@@ -1344,7 +1352,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -1444,7 +1452,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
@@ -1467,13 +1475,13 @@
         <v>73</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K7" t="s" s="2">
         <v>28</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1512,19 +1520,19 @@
         <v>73</v>
       </c>
       <c r="AA7" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AB7" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AC7" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD7" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AE7" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="AB7" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AC7" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD7" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AE7" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>74</v>
@@ -1544,7 +1552,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -1567,16 +1575,16 @@
         <v>73</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -1584,7 +1592,7 @@
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="R8" t="s" s="2">
         <v>73</v>
@@ -1626,7 +1634,7 @@
         <v>73</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>79</v>
@@ -1641,12 +1649,12 @@
         <v>73</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -1672,10 +1680,10 @@
         <v>80</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1726,7 +1734,7 @@
         <v>73</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>74</v>
@@ -1738,10 +1746,10 @@
         <v>73</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10">
@@ -1749,7 +1757,7 @@
         <v>85</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C10" t="s" s="2">
         <v>73</v>
@@ -1771,13 +1779,13 @@
         <v>73</v>
       </c>
       <c r="J10" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K10" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>87</v>
-      </c>
-      <c r="K10" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="L10" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -1828,7 +1836,7 @@
         <v>73</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>74</v>
@@ -1848,7 +1856,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -1948,7 +1956,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -1971,13 +1979,13 @@
         <v>73</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K12" t="s" s="2">
         <v>28</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -2016,19 +2024,19 @@
         <v>73</v>
       </c>
       <c r="AA12" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AE12" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>74</v>
@@ -2048,7 +2056,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2071,16 +2079,16 @@
         <v>73</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -2088,7 +2096,7 @@
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="R13" t="s" s="2">
         <v>73</v>
@@ -2130,7 +2138,7 @@
         <v>73</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>79</v>
@@ -2145,12 +2153,12 @@
         <v>73</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2176,10 +2184,10 @@
         <v>80</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -2230,7 +2238,7 @@
         <v>73</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>74</v>
@@ -2242,10 +2250,10 @@
         <v>73</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15">
@@ -2253,7 +2261,7 @@
         <v>85</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C15" t="s" s="2">
         <v>73</v>
@@ -2275,13 +2283,13 @@
         <v>73</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K15" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>87</v>
-      </c>
-      <c r="K15" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2332,7 +2340,7 @@
         <v>73</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>74</v>
@@ -2352,7 +2360,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2452,7 +2460,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2475,13 +2483,13 @@
         <v>73</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K17" t="s" s="2">
         <v>28</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -2520,19 +2528,19 @@
         <v>73</v>
       </c>
       <c r="AA17" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AE17" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>74</v>
@@ -2552,7 +2560,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -2575,16 +2583,16 @@
         <v>73</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -2592,7 +2600,7 @@
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="R18" t="s" s="2">
         <v>73</v>
@@ -2634,7 +2642,7 @@
         <v>73</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>79</v>
@@ -2649,12 +2657,12 @@
         <v>73</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -2680,10 +2688,10 @@
         <v>80</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -2734,7 +2742,7 @@
         <v>73</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>74</v>
@@ -2746,10 +2754,10 @@
         <v>73</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20">
@@ -2757,7 +2765,7 @@
         <v>85</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C20" t="s" s="2">
         <v>73</v>
@@ -2779,13 +2787,13 @@
         <v>73</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K20" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>87</v>
-      </c>
-      <c r="K20" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -2836,7 +2844,7 @@
         <v>73</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>74</v>
@@ -2856,7 +2864,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -2956,7 +2964,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -2979,13 +2987,13 @@
         <v>73</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K22" t="s" s="2">
         <v>28</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3024,19 +3032,19 @@
         <v>73</v>
       </c>
       <c r="AA22" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AE22" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>74</v>
@@ -3056,7 +3064,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3079,16 +3087,16 @@
         <v>73</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -3096,7 +3104,7 @@
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" t="s" s="2">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="R23" t="s" s="2">
         <v>73</v>
@@ -3138,7 +3146,7 @@
         <v>73</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>79</v>
@@ -3153,12 +3161,12 @@
         <v>73</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3184,10 +3192,10 @@
         <v>80</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3238,7 +3246,7 @@
         <v>73</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>74</v>
@@ -3250,10 +3258,10 @@
         <v>73</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25">
@@ -3261,7 +3269,7 @@
         <v>85</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C25" t="s" s="2">
         <v>73</v>
@@ -3283,13 +3291,13 @@
         <v>73</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K25" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>87</v>
-      </c>
-      <c r="K25" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -3340,7 +3348,7 @@
         <v>73</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>74</v>
@@ -3360,7 +3368,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3460,7 +3468,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3483,13 +3491,13 @@
         <v>73</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K27" t="s" s="2">
         <v>28</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -3528,19 +3536,19 @@
         <v>73</v>
       </c>
       <c r="AA27" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AE27" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD27" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AE27" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>74</v>
@@ -3560,7 +3568,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -3583,16 +3591,16 @@
         <v>73</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -3600,7 +3608,7 @@
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="R28" t="s" s="2">
         <v>73</v>
@@ -3642,7 +3650,7 @@
         <v>73</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>79</v>
@@ -3657,12 +3665,12 @@
         <v>73</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -3688,10 +3696,10 @@
         <v>80</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -3742,7 +3750,7 @@
         <v>73</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>74</v>
@@ -3754,10 +3762,10 @@
         <v>73</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="30">
@@ -3765,7 +3773,7 @@
         <v>85</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C30" t="s" s="2">
         <v>73</v>
@@ -3787,13 +3795,13 @@
         <v>73</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K30" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>87</v>
-      </c>
-      <c r="K30" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -3844,7 +3852,7 @@
         <v>73</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>74</v>
@@ -3864,7 +3872,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -3964,7 +3972,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -3987,13 +3995,13 @@
         <v>73</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K32" t="s" s="2">
         <v>28</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4032,19 +4040,19 @@
         <v>73</v>
       </c>
       <c r="AA32" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AE32" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="AB32" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD32" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AE32" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>74</v>
@@ -4064,7 +4072,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4087,16 +4095,16 @@
         <v>73</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -4104,7 +4112,7 @@
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="R33" t="s" s="2">
         <v>73</v>
@@ -4146,7 +4154,7 @@
         <v>73</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>79</v>
@@ -4161,12 +4169,12 @@
         <v>73</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4192,10 +4200,10 @@
         <v>80</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -4246,7 +4254,7 @@
         <v>73</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>74</v>
@@ -4258,10 +4266,10 @@
         <v>73</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="35">
@@ -4269,7 +4277,7 @@
         <v>85</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C35" t="s" s="2">
         <v>73</v>
@@ -4291,13 +4299,13 @@
         <v>73</v>
       </c>
       <c r="J35" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K35" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>87</v>
-      </c>
-      <c r="K35" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -4348,7 +4356,7 @@
         <v>73</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>74</v>
@@ -4368,7 +4376,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -4468,7 +4476,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -4491,13 +4499,13 @@
         <v>73</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K37" t="s" s="2">
         <v>28</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -4536,19 +4544,19 @@
         <v>73</v>
       </c>
       <c r="AA37" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AE37" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="AB37" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AC37" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD37" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AE37" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>74</v>
@@ -4568,7 +4576,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -4591,16 +4599,16 @@
         <v>73</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -4608,7 +4616,7 @@
       </c>
       <c r="P38" s="2"/>
       <c r="Q38" t="s" s="2">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="R38" t="s" s="2">
         <v>73</v>
@@ -4650,7 +4658,7 @@
         <v>73</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>79</v>
@@ -4665,12 +4673,12 @@
         <v>73</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -4696,10 +4704,10 @@
         <v>80</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -4750,7 +4758,7 @@
         <v>73</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>74</v>
@@ -4762,10 +4770,10 @@
         <v>73</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="40">
@@ -4773,7 +4781,7 @@
         <v>85</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C40" t="s" s="2">
         <v>73</v>
@@ -4795,13 +4803,13 @@
         <v>73</v>
       </c>
       <c r="J40" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K40" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>87</v>
-      </c>
-      <c r="K40" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -4852,7 +4860,7 @@
         <v>73</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>74</v>
@@ -4872,7 +4880,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -4972,7 +4980,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -4995,13 +5003,13 @@
         <v>73</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K42" t="s" s="2">
         <v>28</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -5040,19 +5048,19 @@
         <v>73</v>
       </c>
       <c r="AA42" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AB42" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AC42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD42" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AE42" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="AB42" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AC42" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD42" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AE42" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>74</v>
@@ -5072,7 +5080,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -5095,16 +5103,16 @@
         <v>73</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -5112,7 +5120,7 @@
       </c>
       <c r="P43" s="2"/>
       <c r="Q43" t="s" s="2">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="R43" t="s" s="2">
         <v>73</v>
@@ -5154,7 +5162,7 @@
         <v>73</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>79</v>
@@ -5169,12 +5177,12 @@
         <v>73</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -5200,10 +5208,10 @@
         <v>80</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -5254,7 +5262,7 @@
         <v>73</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>74</v>
@@ -5266,10 +5274,10 @@
         <v>73</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="45">
@@ -5277,7 +5285,7 @@
         <v>85</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C45" t="s" s="2">
         <v>73</v>
@@ -5299,13 +5307,13 @@
         <v>73</v>
       </c>
       <c r="J45" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K45" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>87</v>
-      </c>
-      <c r="K45" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -5356,7 +5364,7 @@
         <v>73</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>74</v>
@@ -5376,7 +5384,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -5476,7 +5484,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -5499,13 +5507,13 @@
         <v>73</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K47" t="s" s="2">
         <v>28</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -5544,19 +5552,19 @@
         <v>73</v>
       </c>
       <c r="AA47" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AE47" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="AB47" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AC47" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD47" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AE47" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>74</v>
@@ -5576,7 +5584,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -5599,16 +5607,16 @@
         <v>73</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -5616,7 +5624,7 @@
       </c>
       <c r="P48" s="2"/>
       <c r="Q48" t="s" s="2">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="R48" t="s" s="2">
         <v>73</v>
@@ -5658,7 +5666,7 @@
         <v>73</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>79</v>
@@ -5673,12 +5681,12 @@
         <v>73</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -5701,13 +5709,13 @@
         <v>73</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -5758,7 +5766,7 @@
         <v>73</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>74</v>
@@ -5770,10 +5778,10 @@
         <v>73</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="50">
@@ -5781,7 +5789,7 @@
         <v>85</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C50" t="s" s="2">
         <v>73</v>
@@ -5803,13 +5811,13 @@
         <v>73</v>
       </c>
       <c r="J50" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>87</v>
-      </c>
-      <c r="K50" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -5860,7 +5868,7 @@
         <v>73</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>74</v>
@@ -5880,7 +5888,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -5980,7 +5988,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -6003,13 +6011,13 @@
         <v>73</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K52" t="s" s="2">
         <v>28</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -6048,19 +6056,19 @@
         <v>73</v>
       </c>
       <c r="AA52" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AE52" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="AB52" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AC52" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD52" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AE52" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>74</v>
@@ -6080,7 +6088,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -6103,16 +6111,16 @@
         <v>73</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -6120,7 +6128,7 @@
       </c>
       <c r="P53" s="2"/>
       <c r="Q53" t="s" s="2">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="R53" t="s" s="2">
         <v>73</v>
@@ -6162,7 +6170,7 @@
         <v>73</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>79</v>
@@ -6177,12 +6185,12 @@
         <v>73</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -6205,13 +6213,13 @@
         <v>73</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -6262,7 +6270,7 @@
         <v>73</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>74</v>
@@ -6274,10 +6282,10 @@
         <v>73</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="55">
@@ -6285,7 +6293,7 @@
         <v>85</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C55" t="s" s="2">
         <v>73</v>
@@ -6307,13 +6315,13 @@
         <v>73</v>
       </c>
       <c r="J55" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>87</v>
-      </c>
-      <c r="K55" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -6364,7 +6372,7 @@
         <v>73</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>74</v>
@@ -6384,7 +6392,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -6484,7 +6492,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -6507,13 +6515,13 @@
         <v>73</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K57" t="s" s="2">
         <v>28</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -6552,19 +6560,19 @@
         <v>73</v>
       </c>
       <c r="AA57" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AE57" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="AB57" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AC57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD57" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AE57" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>74</v>
@@ -6584,7 +6592,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -6607,16 +6615,16 @@
         <v>73</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -6624,7 +6632,7 @@
       </c>
       <c r="P58" s="2"/>
       <c r="Q58" t="s" s="2">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="R58" t="s" s="2">
         <v>73</v>
@@ -6666,7 +6674,7 @@
         <v>73</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>79</v>
@@ -6681,12 +6689,12 @@
         <v>73</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -6709,13 +6717,13 @@
         <v>73</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -6766,7 +6774,7 @@
         <v>73</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>74</v>
@@ -6778,10 +6786,10 @@
         <v>73</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="60">
@@ -6789,7 +6797,7 @@
         <v>85</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C60" t="s" s="2">
         <v>73</v>
@@ -6811,13 +6819,13 @@
         <v>73</v>
       </c>
       <c r="J60" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>87</v>
-      </c>
-      <c r="K60" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -6868,7 +6876,7 @@
         <v>73</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>74</v>
@@ -6888,7 +6896,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -6988,7 +6996,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -7011,13 +7019,13 @@
         <v>73</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K62" t="s" s="2">
         <v>28</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -7056,19 +7064,19 @@
         <v>73</v>
       </c>
       <c r="AA62" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AE62" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="AB62" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AC62" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD62" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AE62" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>74</v>
@@ -7088,7 +7096,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -7111,16 +7119,16 @@
         <v>73</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -7128,7 +7136,7 @@
       </c>
       <c r="P63" s="2"/>
       <c r="Q63" t="s" s="2">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="R63" t="s" s="2">
         <v>73</v>
@@ -7170,7 +7178,7 @@
         <v>73</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>79</v>
@@ -7185,12 +7193,12 @@
         <v>73</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -7213,13 +7221,13 @@
         <v>73</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -7270,7 +7278,7 @@
         <v>73</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>74</v>
@@ -7282,10 +7290,10 @@
         <v>73</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="65">
@@ -7293,7 +7301,7 @@
         <v>85</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C65" t="s" s="2">
         <v>73</v>
@@ -7315,13 +7323,13 @@
         <v>73</v>
       </c>
       <c r="J65" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>87</v>
-      </c>
-      <c r="K65" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -7372,7 +7380,7 @@
         <v>73</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>74</v>
@@ -7392,7 +7400,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -7492,7 +7500,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -7515,13 +7523,13 @@
         <v>73</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K67" t="s" s="2">
         <v>28</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -7560,19 +7568,19 @@
         <v>73</v>
       </c>
       <c r="AA67" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AE67" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="AB67" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AC67" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD67" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AE67" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>74</v>
@@ -7592,7 +7600,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -7615,16 +7623,16 @@
         <v>73</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
@@ -7632,7 +7640,7 @@
       </c>
       <c r="P68" s="2"/>
       <c r="Q68" t="s" s="2">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="R68" t="s" s="2">
         <v>73</v>
@@ -7674,7 +7682,7 @@
         <v>73</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>79</v>
@@ -7689,12 +7697,12 @@
         <v>73</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -7717,13 +7725,13 @@
         <v>73</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -7774,7 +7782,7 @@
         <v>73</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>74</v>
@@ -7786,10 +7794,10 @@
         <v>73</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="70">
@@ -7797,7 +7805,7 @@
         <v>85</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C70" t="s" s="2">
         <v>73</v>
@@ -7819,13 +7827,13 @@
         <v>73</v>
       </c>
       <c r="J70" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="L70" t="s" s="2">
         <v>87</v>
-      </c>
-      <c r="K70" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -7876,7 +7884,7 @@
         <v>73</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>74</v>
@@ -7896,7 +7904,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -7996,7 +8004,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -8019,13 +8027,13 @@
         <v>73</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K72" t="s" s="2">
         <v>28</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -8064,19 +8072,19 @@
         <v>73</v>
       </c>
       <c r="AA72" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AE72" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="AB72" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AC72" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD72" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AE72" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>74</v>
@@ -8096,7 +8104,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -8119,16 +8127,16 @@
         <v>73</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
@@ -8136,7 +8144,7 @@
       </c>
       <c r="P73" s="2"/>
       <c r="Q73" t="s" s="2">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="R73" t="s" s="2">
         <v>73</v>
@@ -8178,7 +8186,7 @@
         <v>73</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>79</v>
@@ -8193,12 +8201,12 @@
         <v>73</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -8221,13 +8229,13 @@
         <v>73</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -8278,7 +8286,7 @@
         <v>73</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>74</v>
@@ -8290,10 +8298,10 @@
         <v>73</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="75">
@@ -8301,7 +8309,7 @@
         <v>85</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C75" t="s" s="2">
         <v>73</v>
@@ -8323,13 +8331,13 @@
         <v>73</v>
       </c>
       <c r="J75" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="L75" t="s" s="2">
         <v>87</v>
-      </c>
-      <c r="K75" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -8380,7 +8388,7 @@
         <v>73</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>74</v>
@@ -8400,7 +8408,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -8500,7 +8508,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -8523,13 +8531,13 @@
         <v>73</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K77" t="s" s="2">
         <v>28</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -8568,19 +8576,19 @@
         <v>73</v>
       </c>
       <c r="AA77" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AE77" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="AB77" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AC77" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD77" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AE77" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>74</v>
@@ -8600,7 +8608,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -8623,16 +8631,16 @@
         <v>73</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
@@ -8640,7 +8648,7 @@
       </c>
       <c r="P78" s="2"/>
       <c r="Q78" t="s" s="2">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="R78" t="s" s="2">
         <v>73</v>
@@ -8682,7 +8690,7 @@
         <v>73</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>79</v>
@@ -8697,12 +8705,12 @@
         <v>73</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -8728,10 +8736,10 @@
         <v>80</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -8782,7 +8790,7 @@
         <v>73</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>74</v>
@@ -8794,10 +8802,10 @@
         <v>73</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="80">
@@ -8805,7 +8813,7 @@
         <v>85</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C80" t="s" s="2">
         <v>73</v>
@@ -8827,13 +8835,13 @@
         <v>73</v>
       </c>
       <c r="J80" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="L80" t="s" s="2">
         <v>87</v>
-      </c>
-      <c r="K80" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
@@ -8884,7 +8892,7 @@
         <v>73</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>74</v>
@@ -8904,7 +8912,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -9004,11 +9012,11 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>86</v>
+        <v>125</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
@@ -9027,16 +9035,16 @@
         <v>73</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>88</v>
+        <v>126</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>89</v>
+        <v>127</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>90</v>
+        <v>128</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
@@ -9074,19 +9082,19 @@
         <v>73</v>
       </c>
       <c r="AA82" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AE82" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="AB82" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AC82" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD82" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AE82" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>74</v>
@@ -9210,7 +9218,7 @@
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
-        <v>86</v>
+        <v>125</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
@@ -9229,16 +9237,16 @@
         <v>73</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>88</v>
+        <v>126</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>89</v>
+        <v>127</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>90</v>
+        <v>128</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
@@ -9276,19 +9284,19 @@
         <v>73</v>
       </c>
       <c r="AA84" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AE84" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="AB84" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AC84" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD84" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AE84" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>74</v>
@@ -9331,16 +9339,16 @@
         <v>73</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
@@ -9390,7 +9398,7 @@
         <v>73</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>79</v>
@@ -9405,7 +9413,7 @@
         <v>73</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="86">
@@ -9436,10 +9444,10 @@
         <v>133</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
@@ -9490,7 +9498,7 @@
         <v>73</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>74</v>
@@ -9502,15 +9510,15 @@
         <v>73</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -9533,16 +9541,16 @@
         <v>73</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
@@ -9550,7 +9558,7 @@
       </c>
       <c r="P87" s="2"/>
       <c r="Q87" t="s" s="2">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="R87" t="s" s="2">
         <v>73</v>
@@ -9592,7 +9600,7 @@
         <v>73</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>79</v>
@@ -9607,12 +9615,12 @@
         <v>73</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -9638,10 +9646,10 @@
         <v>133</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
@@ -9692,7 +9700,7 @@
         <v>73</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>74</v>
@@ -9704,10 +9712,10 @@
         <v>73</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="89">
@@ -9737,13 +9745,13 @@
         <v>73</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K89" t="s" s="2">
         <v>134</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
@@ -9794,7 +9802,7 @@
         <v>73</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>74</v>
@@ -9814,7 +9822,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -9914,7 +9922,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -9937,13 +9945,13 @@
         <v>73</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K91" t="s" s="2">
         <v>28</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="M91" s="2"/>
       <c r="N91" s="2"/>
@@ -9982,19 +9990,19 @@
         <v>73</v>
       </c>
       <c r="AA91" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD91" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AE91" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="AB91" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AC91" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD91" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AE91" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>74</v>
@@ -10014,7 +10022,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -10037,16 +10045,16 @@
         <v>73</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
@@ -10096,7 +10104,7 @@
         <v>73</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>79</v>
@@ -10111,12 +10119,12 @@
         <v>73</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -10139,13 +10147,13 @@
         <v>73</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="M93" s="2"/>
       <c r="N93" s="2"/>
@@ -10196,7 +10204,7 @@
         <v>73</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>74</v>
@@ -10208,10 +10216,10 @@
         <v>73</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="94">
@@ -10241,13 +10249,13 @@
         <v>73</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K94" t="s" s="2">
         <v>135</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="M94" s="2"/>
       <c r="N94" s="2"/>
@@ -10298,7 +10306,7 @@
         <v>73</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>74</v>
@@ -10318,7 +10326,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -10418,7 +10426,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -10441,13 +10449,13 @@
         <v>73</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K96" t="s" s="2">
         <v>28</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="M96" s="2"/>
       <c r="N96" s="2"/>
@@ -10486,19 +10494,19 @@
         <v>73</v>
       </c>
       <c r="AA96" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AB96" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AC96" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD96" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AE96" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="AB96" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AC96" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD96" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AE96" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>74</v>
@@ -10518,7 +10526,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -10541,16 +10549,16 @@
         <v>73</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" t="s" s="2">
@@ -10600,7 +10608,7 @@
         <v>73</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>79</v>
@@ -10615,12 +10623,12 @@
         <v>73</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -10646,10 +10654,10 @@
         <v>80</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="M98" s="2"/>
       <c r="N98" s="2"/>
@@ -10700,7 +10708,7 @@
         <v>73</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>74</v>
@@ -10712,10 +10720,10 @@
         <v>73</v>
       </c>
       <c r="AI98" t="s" s="2">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="99">
@@ -10745,13 +10753,13 @@
         <v>73</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K99" t="s" s="2">
         <v>136</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="M99" s="2"/>
       <c r="N99" s="2"/>
@@ -10802,7 +10810,7 @@
         <v>73</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>74</v>
@@ -10822,7 +10830,7 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -10922,7 +10930,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -10945,13 +10953,13 @@
         <v>73</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K101" t="s" s="2">
         <v>28</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="M101" s="2"/>
       <c r="N101" s="2"/>
@@ -10990,19 +10998,19 @@
         <v>73</v>
       </c>
       <c r="AA101" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AB101" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AC101" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD101" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AE101" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="AB101" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AC101" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD101" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AE101" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>74</v>
@@ -11022,7 +11030,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -11045,16 +11053,16 @@
         <v>73</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" t="s" s="2">
@@ -11104,7 +11112,7 @@
         <v>73</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>79</v>
@@ -11119,12 +11127,12 @@
         <v>73</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -11147,13 +11155,13 @@
         <v>73</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="M103" s="2"/>
       <c r="N103" s="2"/>
@@ -11204,7 +11212,7 @@
         <v>73</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>74</v>
@@ -11216,10 +11224,10 @@
         <v>73</v>
       </c>
       <c r="AI103" t="s" s="2">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="104">
@@ -11249,13 +11257,13 @@
         <v>73</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K104" t="s" s="2">
         <v>137</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="M104" s="2"/>
       <c r="N104" s="2"/>
@@ -11306,7 +11314,7 @@
         <v>73</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>74</v>
@@ -11326,7 +11334,7 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -11426,7 +11434,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -11449,13 +11457,13 @@
         <v>73</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K106" t="s" s="2">
         <v>28</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="M106" s="2"/>
       <c r="N106" s="2"/>
@@ -11494,19 +11502,19 @@
         <v>73</v>
       </c>
       <c r="AA106" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AB106" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AC106" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD106" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AE106" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="AB106" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AC106" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD106" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AE106" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>74</v>
@@ -11526,7 +11534,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -11549,16 +11557,16 @@
         <v>73</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="N107" s="2"/>
       <c r="O107" t="s" s="2">
@@ -11608,7 +11616,7 @@
         <v>73</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>79</v>
@@ -11623,12 +11631,12 @@
         <v>73</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -11654,10 +11662,10 @@
         <v>80</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="M108" s="2"/>
       <c r="N108" s="2"/>
@@ -11708,7 +11716,7 @@
         <v>73</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>74</v>
@@ -11720,10 +11728,10 @@
         <v>73</v>
       </c>
       <c r="AI108" t="s" s="2">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="AJ108" t="s" s="2">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="109">
@@ -11753,13 +11761,13 @@
         <v>73</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K109" t="s" s="2">
         <v>138</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="M109" s="2"/>
       <c r="N109" s="2"/>
@@ -11810,7 +11818,7 @@
         <v>73</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>74</v>
@@ -11830,7 +11838,7 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -11930,7 +11938,7 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -11953,13 +11961,13 @@
         <v>73</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K111" t="s" s="2">
         <v>28</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="M111" s="2"/>
       <c r="N111" s="2"/>
@@ -11998,19 +12006,19 @@
         <v>73</v>
       </c>
       <c r="AA111" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AB111" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AC111" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD111" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AE111" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="AB111" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AC111" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD111" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AE111" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>74</v>
@@ -12030,7 +12038,7 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -12053,16 +12061,16 @@
         <v>73</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="N112" s="2"/>
       <c r="O112" t="s" s="2">
@@ -12112,7 +12120,7 @@
         <v>73</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>79</v>
@@ -12127,12 +12135,12 @@
         <v>73</v>
       </c>
       <c r="AJ112" t="s" s="2">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -12158,10 +12166,10 @@
         <v>80</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="M113" s="2"/>
       <c r="N113" s="2"/>
@@ -12212,7 +12220,7 @@
         <v>73</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>74</v>
@@ -12224,10 +12232,10 @@
         <v>73</v>
       </c>
       <c r="AI113" t="s" s="2">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="AJ113" t="s" s="2">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="114">
@@ -12257,13 +12265,13 @@
         <v>73</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K114" t="s" s="2">
         <v>28</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="M114" s="2"/>
       <c r="N114" s="2"/>
@@ -12314,7 +12322,7 @@
         <v>73</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>74</v>
@@ -12334,7 +12342,7 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -12434,11 +12442,11 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
-        <v>86</v>
+        <v>125</v>
       </c>
       <c r="D116" s="2"/>
       <c r="E116" t="s" s="2">
@@ -12457,16 +12465,16 @@
         <v>73</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>88</v>
+        <v>126</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>89</v>
+        <v>127</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>90</v>
+        <v>128</v>
       </c>
       <c r="N116" s="2"/>
       <c r="O116" t="s" s="2">
@@ -12504,19 +12512,19 @@
         <v>73</v>
       </c>
       <c r="AA116" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AB116" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AC116" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD116" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AE116" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="AB116" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AC116" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD116" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AE116" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>74</v>
@@ -12640,7 +12648,7 @@
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
-        <v>86</v>
+        <v>125</v>
       </c>
       <c r="D118" s="2"/>
       <c r="E118" t="s" s="2">
@@ -12659,16 +12667,16 @@
         <v>73</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>88</v>
+        <v>126</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>89</v>
+        <v>127</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>90</v>
+        <v>128</v>
       </c>
       <c r="N118" s="2"/>
       <c r="O118" t="s" s="2">
@@ -12706,19 +12714,19 @@
         <v>73</v>
       </c>
       <c r="AA118" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AB118" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AC118" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD118" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AE118" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="AB118" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AC118" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD118" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AE118" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>74</v>
@@ -12761,16 +12769,16 @@
         <v>73</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="N119" s="2"/>
       <c r="O119" t="s" s="2">
@@ -12820,7 +12828,7 @@
         <v>73</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="AF119" t="s" s="2">
         <v>79</v>
@@ -12835,7 +12843,7 @@
         <v>73</v>
       </c>
       <c r="AJ119" t="s" s="2">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="120">
@@ -12866,10 +12874,10 @@
         <v>133</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="M120" s="2"/>
       <c r="N120" s="2"/>
@@ -12920,7 +12928,7 @@
         <v>73</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="AF120" t="s" s="2">
         <v>74</v>
@@ -12932,15 +12940,15 @@
         <v>73</v>
       </c>
       <c r="AI120" t="s" s="2">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="AJ120" t="s" s="2">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -12963,16 +12971,16 @@
         <v>73</v>
       </c>
       <c r="J121" t="s" s="2">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="N121" s="2"/>
       <c r="O121" t="s" s="2">
@@ -13022,7 +13030,7 @@
         <v>73</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>79</v>
@@ -13037,12 +13045,12 @@
         <v>73</v>
       </c>
       <c r="AJ121" t="s" s="2">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
@@ -13068,10 +13076,10 @@
         <v>133</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="M122" s="2"/>
       <c r="N122" s="2"/>
@@ -13122,7 +13130,7 @@
         <v>73</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>74</v>
@@ -13134,10 +13142,10 @@
         <v>73</v>
       </c>
       <c r="AI122" t="s" s="2">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="AJ122" t="s" s="2">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="123">
@@ -13167,13 +13175,13 @@
         <v>73</v>
       </c>
       <c r="J123" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K123" t="s" s="2">
         <v>140</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="M123" s="2"/>
       <c r="N123" s="2"/>
@@ -13224,7 +13232,7 @@
         <v>73</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>74</v>
@@ -13244,7 +13252,7 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -13344,7 +13352,7 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
@@ -13367,13 +13375,13 @@
         <v>73</v>
       </c>
       <c r="J125" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K125" t="s" s="2">
         <v>28</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="M125" s="2"/>
       <c r="N125" s="2"/>
@@ -13412,19 +13420,19 @@
         <v>73</v>
       </c>
       <c r="AA125" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AB125" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AC125" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD125" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AE125" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="AB125" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AC125" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD125" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AE125" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>74</v>
@@ -13444,7 +13452,7 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
@@ -13467,16 +13475,16 @@
         <v>73</v>
       </c>
       <c r="J126" t="s" s="2">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="N126" s="2"/>
       <c r="O126" t="s" s="2">
@@ -13526,7 +13534,7 @@
         <v>73</v>
       </c>
       <c r="AE126" t="s" s="2">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="AF126" t="s" s="2">
         <v>79</v>
@@ -13541,12 +13549,12 @@
         <v>73</v>
       </c>
       <c r="AJ126" t="s" s="2">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
@@ -13572,10 +13580,10 @@
         <v>80</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="M127" s="2"/>
       <c r="N127" s="2"/>
@@ -13626,7 +13634,7 @@
         <v>73</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="AF127" t="s" s="2">
         <v>74</v>
@@ -13638,10 +13646,10 @@
         <v>73</v>
       </c>
       <c r="AI127" t="s" s="2">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="AJ127" t="s" s="2">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="128">
@@ -13671,13 +13679,13 @@
         <v>73</v>
       </c>
       <c r="J128" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K128" t="s" s="2">
         <v>141</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="M128" s="2"/>
       <c r="N128" s="2"/>
@@ -13728,7 +13736,7 @@
         <v>73</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="AF128" t="s" s="2">
         <v>74</v>
@@ -13748,7 +13756,7 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
@@ -13848,7 +13856,7 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
@@ -13871,13 +13879,13 @@
         <v>73</v>
       </c>
       <c r="J130" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K130" t="s" s="2">
         <v>28</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="M130" s="2"/>
       <c r="N130" s="2"/>
@@ -13916,19 +13924,19 @@
         <v>73</v>
       </c>
       <c r="AA130" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AB130" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AC130" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD130" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AE130" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="AB130" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AC130" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD130" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AE130" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="AF130" t="s" s="2">
         <v>74</v>
@@ -13948,7 +13956,7 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
@@ -13971,16 +13979,16 @@
         <v>73</v>
       </c>
       <c r="J131" t="s" s="2">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="N131" s="2"/>
       <c r="O131" t="s" s="2">
@@ -14030,7 +14038,7 @@
         <v>73</v>
       </c>
       <c r="AE131" t="s" s="2">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="AF131" t="s" s="2">
         <v>79</v>
@@ -14045,12 +14053,12 @@
         <v>73</v>
       </c>
       <c r="AJ131" t="s" s="2">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
@@ -14073,13 +14081,13 @@
         <v>73</v>
       </c>
       <c r="J132" t="s" s="2">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="M132" s="2"/>
       <c r="N132" s="2"/>
@@ -14130,7 +14138,7 @@
         <v>73</v>
       </c>
       <c r="AE132" t="s" s="2">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="AF132" t="s" s="2">
         <v>74</v>
@@ -14142,10 +14150,10 @@
         <v>73</v>
       </c>
       <c r="AI132" t="s" s="2">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="AJ132" t="s" s="2">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="133">
@@ -14175,13 +14183,13 @@
         <v>73</v>
       </c>
       <c r="J133" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K133" t="s" s="2">
         <v>142</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="M133" s="2"/>
       <c r="N133" s="2"/>
@@ -14232,7 +14240,7 @@
         <v>73</v>
       </c>
       <c r="AE133" t="s" s="2">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="AF133" t="s" s="2">
         <v>74</v>
@@ -14252,7 +14260,7 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
@@ -14352,7 +14360,7 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" t="s" s="2">
@@ -14375,13 +14383,13 @@
         <v>73</v>
       </c>
       <c r="J135" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K135" t="s" s="2">
         <v>28</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="M135" s="2"/>
       <c r="N135" s="2"/>
@@ -14420,19 +14428,19 @@
         <v>73</v>
       </c>
       <c r="AA135" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AB135" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AC135" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD135" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AE135" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="AB135" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AC135" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD135" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AE135" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="AF135" t="s" s="2">
         <v>74</v>
@@ -14452,7 +14460,7 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
@@ -14475,16 +14483,16 @@
         <v>73</v>
       </c>
       <c r="J136" t="s" s="2">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="N136" s="2"/>
       <c r="O136" t="s" s="2">
@@ -14534,7 +14542,7 @@
         <v>73</v>
       </c>
       <c r="AE136" t="s" s="2">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="AF136" t="s" s="2">
         <v>79</v>
@@ -14549,12 +14557,12 @@
         <v>73</v>
       </c>
       <c r="AJ136" t="s" s="2">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" t="s" s="2">
@@ -14580,10 +14588,10 @@
         <v>80</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="M137" s="2"/>
       <c r="N137" s="2"/>
@@ -14634,7 +14642,7 @@
         <v>73</v>
       </c>
       <c r="AE137" t="s" s="2">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="AF137" t="s" s="2">
         <v>74</v>
@@ -14646,10 +14654,10 @@
         <v>73</v>
       </c>
       <c r="AI137" t="s" s="2">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="AJ137" t="s" s="2">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="138">
@@ -14679,13 +14687,13 @@
         <v>73</v>
       </c>
       <c r="J138" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K138" t="s" s="2">
         <v>28</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="M138" s="2"/>
       <c r="N138" s="2"/>
@@ -14736,7 +14744,7 @@
         <v>73</v>
       </c>
       <c r="AE138" t="s" s="2">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="AF138" t="s" s="2">
         <v>74</v>
@@ -14756,7 +14764,7 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
@@ -14856,7 +14864,7 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
@@ -14879,13 +14887,13 @@
         <v>73</v>
       </c>
       <c r="J140" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K140" t="s" s="2">
         <v>28</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="M140" s="2"/>
       <c r="N140" s="2"/>
@@ -14924,19 +14932,19 @@
         <v>73</v>
       </c>
       <c r="AA140" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AB140" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AC140" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD140" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AE140" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="AB140" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AC140" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD140" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AE140" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="AF140" t="s" s="2">
         <v>74</v>
@@ -14956,7 +14964,7 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" t="s" s="2">
@@ -14979,16 +14987,16 @@
         <v>73</v>
       </c>
       <c r="J141" t="s" s="2">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="N141" s="2"/>
       <c r="O141" t="s" s="2">
@@ -15038,7 +15046,7 @@
         <v>73</v>
       </c>
       <c r="AE141" t="s" s="2">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="AF141" t="s" s="2">
         <v>79</v>
@@ -15053,12 +15061,12 @@
         <v>73</v>
       </c>
       <c r="AJ141" t="s" s="2">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" t="s" s="2">
@@ -15081,13 +15089,13 @@
         <v>73</v>
       </c>
       <c r="J142" t="s" s="2">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="M142" s="2"/>
       <c r="N142" s="2"/>
@@ -15138,7 +15146,7 @@
         <v>73</v>
       </c>
       <c r="AE142" t="s" s="2">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="AF142" t="s" s="2">
         <v>74</v>
@@ -15150,10 +15158,10 @@
         <v>73</v>
       </c>
       <c r="AI142" t="s" s="2">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="AJ142" t="s" s="2">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="143">
@@ -15183,13 +15191,13 @@
         <v>73</v>
       </c>
       <c r="J143" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K143" t="s" s="2">
         <v>144</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="M143" s="2"/>
       <c r="N143" s="2"/>
@@ -15240,7 +15248,7 @@
         <v>73</v>
       </c>
       <c r="AE143" t="s" s="2">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="AF143" t="s" s="2">
         <v>74</v>
@@ -15260,7 +15268,7 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" t="s" s="2">
@@ -15360,7 +15368,7 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" t="s" s="2">
@@ -15383,13 +15391,13 @@
         <v>73</v>
       </c>
       <c r="J145" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K145" t="s" s="2">
         <v>28</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="M145" s="2"/>
       <c r="N145" s="2"/>
@@ -15428,19 +15436,19 @@
         <v>73</v>
       </c>
       <c r="AA145" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AB145" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AC145" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD145" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AE145" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="AB145" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AC145" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD145" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AE145" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="AF145" t="s" s="2">
         <v>74</v>
@@ -15460,7 +15468,7 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" t="s" s="2">
@@ -15483,16 +15491,16 @@
         <v>73</v>
       </c>
       <c r="J146" t="s" s="2">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="N146" s="2"/>
       <c r="O146" t="s" s="2">
@@ -15542,7 +15550,7 @@
         <v>73</v>
       </c>
       <c r="AE146" t="s" s="2">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="AF146" t="s" s="2">
         <v>79</v>
@@ -15557,12 +15565,12 @@
         <v>73</v>
       </c>
       <c r="AJ146" t="s" s="2">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" t="s" s="2">
@@ -15585,13 +15593,13 @@
         <v>73</v>
       </c>
       <c r="J147" t="s" s="2">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="M147" s="2"/>
       <c r="N147" s="2"/>
@@ -15642,7 +15650,7 @@
         <v>73</v>
       </c>
       <c r="AE147" t="s" s="2">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="AF147" t="s" s="2">
         <v>74</v>
@@ -15654,10 +15662,10 @@
         <v>73</v>
       </c>
       <c r="AI147" t="s" s="2">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="AJ147" t="s" s="2">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="148">
@@ -15687,13 +15695,13 @@
         <v>73</v>
       </c>
       <c r="J148" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K148" t="s" s="2">
         <v>145</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="M148" s="2"/>
       <c r="N148" s="2"/>
@@ -15744,7 +15752,7 @@
         <v>73</v>
       </c>
       <c r="AE148" t="s" s="2">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="AF148" t="s" s="2">
         <v>74</v>
@@ -15764,7 +15772,7 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" t="s" s="2">
@@ -15864,7 +15872,7 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B150" s="2"/>
       <c r="C150" t="s" s="2">
@@ -15887,13 +15895,13 @@
         <v>73</v>
       </c>
       <c r="J150" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K150" t="s" s="2">
         <v>28</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="M150" s="2"/>
       <c r="N150" s="2"/>
@@ -15932,19 +15940,19 @@
         <v>73</v>
       </c>
       <c r="AA150" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AB150" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AC150" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD150" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AE150" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="AB150" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AC150" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD150" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AE150" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="AF150" t="s" s="2">
         <v>74</v>
@@ -15964,7 +15972,7 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B151" s="2"/>
       <c r="C151" t="s" s="2">
@@ -15987,16 +15995,16 @@
         <v>73</v>
       </c>
       <c r="J151" t="s" s="2">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="M151" t="s" s="2">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="N151" s="2"/>
       <c r="O151" t="s" s="2">
@@ -16046,7 +16054,7 @@
         <v>73</v>
       </c>
       <c r="AE151" t="s" s="2">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="AF151" t="s" s="2">
         <v>79</v>
@@ -16061,12 +16069,12 @@
         <v>73</v>
       </c>
       <c r="AJ151" t="s" s="2">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B152" s="2"/>
       <c r="C152" t="s" s="2">
@@ -16089,13 +16097,13 @@
         <v>73</v>
       </c>
       <c r="J152" t="s" s="2">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="M152" s="2"/>
       <c r="N152" s="2"/>
@@ -16146,7 +16154,7 @@
         <v>73</v>
       </c>
       <c r="AE152" t="s" s="2">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="AF152" t="s" s="2">
         <v>74</v>
@@ -16158,10 +16166,10 @@
         <v>73</v>
       </c>
       <c r="AI152" t="s" s="2">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="AJ152" t="s" s="2">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="153">
@@ -16191,13 +16199,13 @@
         <v>73</v>
       </c>
       <c r="J153" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K153" t="s" s="2">
         <v>146</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="M153" s="2"/>
       <c r="N153" s="2"/>
@@ -16248,7 +16256,7 @@
         <v>73</v>
       </c>
       <c r="AE153" t="s" s="2">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="AF153" t="s" s="2">
         <v>74</v>
@@ -16268,7 +16276,7 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" t="s" s="2">
@@ -16368,7 +16376,7 @@
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" t="s" s="2">
@@ -16391,13 +16399,13 @@
         <v>73</v>
       </c>
       <c r="J155" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K155" t="s" s="2">
         <v>28</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="M155" s="2"/>
       <c r="N155" s="2"/>
@@ -16436,19 +16444,19 @@
         <v>73</v>
       </c>
       <c r="AA155" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AB155" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AC155" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD155" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AE155" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="AB155" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AC155" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD155" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AE155" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="AF155" t="s" s="2">
         <v>74</v>
@@ -16468,7 +16476,7 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B156" s="2"/>
       <c r="C156" t="s" s="2">
@@ -16491,16 +16499,16 @@
         <v>73</v>
       </c>
       <c r="J156" t="s" s="2">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="K156" t="s" s="2">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="N156" s="2"/>
       <c r="O156" t="s" s="2">
@@ -16550,7 +16558,7 @@
         <v>73</v>
       </c>
       <c r="AE156" t="s" s="2">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="AF156" t="s" s="2">
         <v>79</v>
@@ -16565,12 +16573,12 @@
         <v>73</v>
       </c>
       <c r="AJ156" t="s" s="2">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B157" s="2"/>
       <c r="C157" t="s" s="2">
@@ -16593,13 +16601,13 @@
         <v>73</v>
       </c>
       <c r="J157" t="s" s="2">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="K157" t="s" s="2">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="M157" s="2"/>
       <c r="N157" s="2"/>
@@ -16650,7 +16658,7 @@
         <v>73</v>
       </c>
       <c r="AE157" t="s" s="2">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="AF157" t="s" s="2">
         <v>74</v>
@@ -16662,10 +16670,10 @@
         <v>73</v>
       </c>
       <c r="AI157" t="s" s="2">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="AJ157" t="s" s="2">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="158">
@@ -16695,13 +16703,13 @@
         <v>73</v>
       </c>
       <c r="J158" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K158" t="s" s="2">
         <v>147</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="M158" s="2"/>
       <c r="N158" s="2"/>
@@ -16752,7 +16760,7 @@
         <v>73</v>
       </c>
       <c r="AE158" t="s" s="2">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="AF158" t="s" s="2">
         <v>74</v>
@@ -16772,7 +16780,7 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" t="s" s="2">
@@ -16872,7 +16880,7 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B160" s="2"/>
       <c r="C160" t="s" s="2">
@@ -16895,13 +16903,13 @@
         <v>73</v>
       </c>
       <c r="J160" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K160" t="s" s="2">
         <v>28</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="M160" s="2"/>
       <c r="N160" s="2"/>
@@ -16940,19 +16948,19 @@
         <v>73</v>
       </c>
       <c r="AA160" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AB160" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AC160" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD160" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AE160" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="AB160" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AC160" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD160" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AE160" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="AF160" t="s" s="2">
         <v>74</v>
@@ -16972,7 +16980,7 @@
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B161" s="2"/>
       <c r="C161" t="s" s="2">
@@ -16995,16 +17003,16 @@
         <v>73</v>
       </c>
       <c r="J161" t="s" s="2">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="K161" t="s" s="2">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="M161" t="s" s="2">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="N161" s="2"/>
       <c r="O161" t="s" s="2">
@@ -17054,7 +17062,7 @@
         <v>73</v>
       </c>
       <c r="AE161" t="s" s="2">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="AF161" t="s" s="2">
         <v>79</v>
@@ -17069,12 +17077,12 @@
         <v>73</v>
       </c>
       <c r="AJ161" t="s" s="2">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B162" s="2"/>
       <c r="C162" t="s" s="2">
@@ -17097,13 +17105,13 @@
         <v>73</v>
       </c>
       <c r="J162" t="s" s="2">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="K162" t="s" s="2">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="M162" s="2"/>
       <c r="N162" s="2"/>
@@ -17154,7 +17162,7 @@
         <v>73</v>
       </c>
       <c r="AE162" t="s" s="2">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="AF162" t="s" s="2">
         <v>74</v>
@@ -17166,10 +17174,10 @@
         <v>73</v>
       </c>
       <c r="AI162" t="s" s="2">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="AJ162" t="s" s="2">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="163">
@@ -17199,13 +17207,13 @@
         <v>73</v>
       </c>
       <c r="J163" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K163" t="s" s="2">
         <v>148</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="M163" s="2"/>
       <c r="N163" s="2"/>
@@ -17256,7 +17264,7 @@
         <v>73</v>
       </c>
       <c r="AE163" t="s" s="2">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="AF163" t="s" s="2">
         <v>74</v>
@@ -17276,7 +17284,7 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B164" s="2"/>
       <c r="C164" t="s" s="2">
@@ -17376,7 +17384,7 @@
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B165" s="2"/>
       <c r="C165" t="s" s="2">
@@ -17399,13 +17407,13 @@
         <v>73</v>
       </c>
       <c r="J165" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K165" t="s" s="2">
         <v>28</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="M165" s="2"/>
       <c r="N165" s="2"/>
@@ -17444,19 +17452,19 @@
         <v>73</v>
       </c>
       <c r="AA165" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AB165" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AC165" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD165" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AE165" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="AB165" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AC165" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD165" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AE165" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="AF165" t="s" s="2">
         <v>74</v>
@@ -17476,7 +17484,7 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B166" s="2"/>
       <c r="C166" t="s" s="2">
@@ -17499,16 +17507,16 @@
         <v>73</v>
       </c>
       <c r="J166" t="s" s="2">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="K166" t="s" s="2">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="M166" t="s" s="2">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="N166" s="2"/>
       <c r="O166" t="s" s="2">
@@ -17558,7 +17566,7 @@
         <v>73</v>
       </c>
       <c r="AE166" t="s" s="2">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="AF166" t="s" s="2">
         <v>79</v>
@@ -17573,12 +17581,12 @@
         <v>73</v>
       </c>
       <c r="AJ166" t="s" s="2">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B167" s="2"/>
       <c r="C167" t="s" s="2">
@@ -17604,10 +17612,10 @@
         <v>80</v>
       </c>
       <c r="K167" t="s" s="2">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="M167" s="2"/>
       <c r="N167" s="2"/>
@@ -17658,7 +17666,7 @@
         <v>73</v>
       </c>
       <c r="AE167" t="s" s="2">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="AF167" t="s" s="2">
         <v>74</v>
@@ -17670,10 +17678,10 @@
         <v>73</v>
       </c>
       <c r="AI167" t="s" s="2">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="AJ167" t="s" s="2">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="168">
@@ -17703,13 +17711,13 @@
         <v>73</v>
       </c>
       <c r="J168" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K168" t="s" s="2">
         <v>149</v>
       </c>
       <c r="L168" t="s" s="2">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="M168" s="2"/>
       <c r="N168" s="2"/>
@@ -17760,7 +17768,7 @@
         <v>73</v>
       </c>
       <c r="AE168" t="s" s="2">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="AF168" t="s" s="2">
         <v>74</v>
@@ -17780,7 +17788,7 @@
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B169" s="2"/>
       <c r="C169" t="s" s="2">
@@ -17880,7 +17888,7 @@
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B170" s="2"/>
       <c r="C170" t="s" s="2">
@@ -17903,13 +17911,13 @@
         <v>73</v>
       </c>
       <c r="J170" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K170" t="s" s="2">
         <v>28</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="M170" s="2"/>
       <c r="N170" s="2"/>
@@ -17948,19 +17956,19 @@
         <v>73</v>
       </c>
       <c r="AA170" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AB170" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AC170" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD170" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AE170" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="AB170" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AC170" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD170" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AE170" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="AF170" t="s" s="2">
         <v>74</v>
@@ -17980,7 +17988,7 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B171" s="2"/>
       <c r="C171" t="s" s="2">
@@ -18003,16 +18011,16 @@
         <v>73</v>
       </c>
       <c r="J171" t="s" s="2">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="K171" t="s" s="2">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="L171" t="s" s="2">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="M171" t="s" s="2">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="N171" s="2"/>
       <c r="O171" t="s" s="2">
@@ -18062,7 +18070,7 @@
         <v>73</v>
       </c>
       <c r="AE171" t="s" s="2">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="AF171" t="s" s="2">
         <v>79</v>
@@ -18077,12 +18085,12 @@
         <v>73</v>
       </c>
       <c r="AJ171" t="s" s="2">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B172" s="2"/>
       <c r="C172" t="s" s="2">
@@ -18105,13 +18113,13 @@
         <v>73</v>
       </c>
       <c r="J172" t="s" s="2">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="K172" t="s" s="2">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="L172" t="s" s="2">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="M172" s="2"/>
       <c r="N172" s="2"/>
@@ -18162,7 +18170,7 @@
         <v>73</v>
       </c>
       <c r="AE172" t="s" s="2">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="AF172" t="s" s="2">
         <v>74</v>
@@ -18174,10 +18182,10 @@
         <v>73</v>
       </c>
       <c r="AI172" t="s" s="2">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="AJ172" t="s" s="2">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="173">
@@ -18207,13 +18215,13 @@
         <v>73</v>
       </c>
       <c r="J173" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K173" t="s" s="2">
         <v>150</v>
       </c>
       <c r="L173" t="s" s="2">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="M173" s="2"/>
       <c r="N173" s="2"/>
@@ -18264,7 +18272,7 @@
         <v>73</v>
       </c>
       <c r="AE173" t="s" s="2">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="AF173" t="s" s="2">
         <v>74</v>
@@ -18284,7 +18292,7 @@
     </row>
     <row r="174">
       <c r="A174" t="s" s="2">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B174" s="2"/>
       <c r="C174" t="s" s="2">
@@ -18384,7 +18392,7 @@
     </row>
     <row r="175">
       <c r="A175" t="s" s="2">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B175" s="2"/>
       <c r="C175" t="s" s="2">
@@ -18407,13 +18415,13 @@
         <v>73</v>
       </c>
       <c r="J175" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K175" t="s" s="2">
         <v>28</v>
       </c>
       <c r="L175" t="s" s="2">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="M175" s="2"/>
       <c r="N175" s="2"/>
@@ -18452,19 +18460,19 @@
         <v>73</v>
       </c>
       <c r="AA175" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AB175" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AC175" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD175" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AE175" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="AB175" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AC175" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD175" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AE175" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="AF175" t="s" s="2">
         <v>74</v>
@@ -18484,7 +18492,7 @@
     </row>
     <row r="176">
       <c r="A176" t="s" s="2">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B176" s="2"/>
       <c r="C176" t="s" s="2">
@@ -18507,16 +18515,16 @@
         <v>73</v>
       </c>
       <c r="J176" t="s" s="2">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="K176" t="s" s="2">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="L176" t="s" s="2">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="M176" t="s" s="2">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="N176" s="2"/>
       <c r="O176" t="s" s="2">
@@ -18566,7 +18574,7 @@
         <v>73</v>
       </c>
       <c r="AE176" t="s" s="2">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="AF176" t="s" s="2">
         <v>79</v>
@@ -18581,12 +18589,12 @@
         <v>73</v>
       </c>
       <c r="AJ176" t="s" s="2">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s" s="2">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B177" s="2"/>
       <c r="C177" t="s" s="2">
@@ -18609,13 +18617,13 @@
         <v>73</v>
       </c>
       <c r="J177" t="s" s="2">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="K177" t="s" s="2">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="M177" s="2"/>
       <c r="N177" s="2"/>
@@ -18666,7 +18674,7 @@
         <v>73</v>
       </c>
       <c r="AE177" t="s" s="2">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="AF177" t="s" s="2">
         <v>74</v>
@@ -18678,17 +18686,19 @@
         <v>73</v>
       </c>
       <c r="AI177" t="s" s="2">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="AJ177" t="s" s="2">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="B178" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="B178" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="C178" t="s" s="2">
         <v>73</v>
       </c>
@@ -18709,24 +18719,22 @@
         <v>73</v>
       </c>
       <c r="J178" t="s" s="2">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="K178" t="s" s="2">
-        <v>102</v>
+        <v>151</v>
       </c>
       <c r="L178" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="M178" t="s" s="2">
-        <v>104</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="M178" s="2"/>
       <c r="N178" s="2"/>
       <c r="O178" t="s" s="2">
         <v>73</v>
       </c>
       <c r="P178" s="2"/>
       <c r="Q178" t="s" s="2">
-        <v>3</v>
+        <v>73</v>
       </c>
       <c r="R178" t="s" s="2">
         <v>73</v>
@@ -18768,27 +18776,27 @@
         <v>73</v>
       </c>
       <c r="AE178" t="s" s="2">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="AF178" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AG178" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AH178" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI178" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AJ178" t="s" s="2">
-        <v>106</v>
+        <v>73</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s" s="2">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="B179" s="2"/>
       <c r="C179" t="s" s="2">
@@ -18799,7 +18807,7 @@
         <v>74</v>
       </c>
       <c r="F179" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G179" t="s" s="2">
         <v>73</v>
@@ -18811,13 +18819,13 @@
         <v>73</v>
       </c>
       <c r="J179" t="s" s="2">
-        <v>133</v>
+        <v>80</v>
       </c>
       <c r="K179" t="s" s="2">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="L179" t="s" s="2">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="M179" s="2"/>
       <c r="N179" s="2"/>
@@ -18868,7 +18876,7 @@
         <v>73</v>
       </c>
       <c r="AE179" t="s" s="2">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="AF179" t="s" s="2">
         <v>74</v>
@@ -18880,10 +18888,1018 @@
         <v>73</v>
       </c>
       <c r="AI179" t="s" s="2">
-        <v>111</v>
+        <v>73</v>
       </c>
       <c r="AJ179" t="s" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="B180" s="2"/>
+      <c r="C180" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D180" s="2"/>
+      <c r="E180" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F180" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G180" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H180" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I180" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J180" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K180" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="L180" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="M180" s="2"/>
+      <c r="N180" s="2"/>
+      <c r="O180" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P180" s="2"/>
+      <c r="Q180" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R180" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S180" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T180" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U180" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V180" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W180" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X180" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y180" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z180" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA180" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AB180" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AC180" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD180" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AE180" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AF180" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG180" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH180" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI180" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ180" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="B181" s="2"/>
+      <c r="C181" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D181" s="2"/>
+      <c r="E181" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F181" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G181" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H181" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I181" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J181" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="K181" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="L181" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="M181" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="N181" s="2"/>
+      <c r="O181" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P181" s="2"/>
+      <c r="Q181" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="R181" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S181" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T181" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U181" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V181" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W181" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X181" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y181" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z181" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA181" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB181" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC181" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD181" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE181" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AF181" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG181" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH181" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI181" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ181" t="s" s="2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="B182" s="2"/>
+      <c r="C182" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D182" s="2"/>
+      <c r="E182" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F182" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G182" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H182" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I182" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J182" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="K182" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="L182" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="M182" s="2"/>
+      <c r="N182" s="2"/>
+      <c r="O182" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P182" s="2"/>
+      <c r="Q182" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R182" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S182" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T182" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U182" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V182" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W182" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X182" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y182" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z182" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA182" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB182" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC182" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD182" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE182" t="s" s="2">
         <v>106</v>
+      </c>
+      <c r="AF182" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG182" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH182" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI182" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AJ182" t="s" s="2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="B183" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="C183" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D183" s="2"/>
+      <c r="E183" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F183" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G183" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H183" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I183" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J183" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K183" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="L183" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="M183" s="2"/>
+      <c r="N183" s="2"/>
+      <c r="O183" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P183" s="2"/>
+      <c r="Q183" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R183" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S183" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T183" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U183" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V183" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W183" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X183" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y183" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z183" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA183" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB183" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC183" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD183" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE183" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AF183" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG183" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH183" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI183" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ183" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="B184" s="2"/>
+      <c r="C184" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D184" s="2"/>
+      <c r="E184" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F184" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G184" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H184" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I184" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J184" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K184" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="L184" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="M184" s="2"/>
+      <c r="N184" s="2"/>
+      <c r="O184" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P184" s="2"/>
+      <c r="Q184" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R184" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S184" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T184" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U184" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V184" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W184" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X184" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y184" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z184" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA184" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB184" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC184" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD184" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE184" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF184" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG184" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH184" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI184" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ184" t="s" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="B185" s="2"/>
+      <c r="C185" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D185" s="2"/>
+      <c r="E185" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F185" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G185" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H185" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I185" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J185" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K185" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="L185" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="M185" s="2"/>
+      <c r="N185" s="2"/>
+      <c r="O185" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P185" s="2"/>
+      <c r="Q185" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R185" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S185" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T185" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U185" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V185" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W185" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X185" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y185" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z185" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA185" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AB185" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AC185" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD185" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AE185" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AF185" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG185" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH185" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI185" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ185" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="B186" s="2"/>
+      <c r="C186" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D186" s="2"/>
+      <c r="E186" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F186" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G186" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H186" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I186" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J186" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="K186" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="L186" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="M186" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="N186" s="2"/>
+      <c r="O186" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P186" s="2"/>
+      <c r="Q186" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="R186" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S186" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T186" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U186" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V186" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W186" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X186" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y186" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z186" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA186" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB186" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC186" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD186" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE186" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AF186" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG186" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH186" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI186" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ186" t="s" s="2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="B187" s="2"/>
+      <c r="C187" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D187" s="2"/>
+      <c r="E187" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F187" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G187" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H187" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I187" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J187" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K187" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="L187" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="M187" s="2"/>
+      <c r="N187" s="2"/>
+      <c r="O187" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P187" s="2"/>
+      <c r="Q187" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R187" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S187" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T187" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U187" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V187" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W187" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X187" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y187" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z187" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA187" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB187" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC187" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD187" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE187" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AF187" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG187" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH187" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI187" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AJ187" t="s" s="2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="B188" s="2"/>
+      <c r="C188" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D188" s="2"/>
+      <c r="E188" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F188" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G188" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H188" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I188" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J188" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="K188" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="L188" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="M188" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="N188" s="2"/>
+      <c r="O188" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P188" s="2"/>
+      <c r="Q188" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="R188" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S188" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T188" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U188" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V188" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W188" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X188" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y188" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z188" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA188" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB188" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC188" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD188" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE188" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AF188" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG188" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH188" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI188" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ188" t="s" s="2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="B189" s="2"/>
+      <c r="C189" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D189" s="2"/>
+      <c r="E189" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F189" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G189" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H189" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I189" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J189" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="K189" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="L189" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="M189" s="2"/>
+      <c r="N189" s="2"/>
+      <c r="O189" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P189" s="2"/>
+      <c r="Q189" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R189" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S189" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T189" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U189" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V189" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W189" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X189" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y189" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z189" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA189" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB189" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC189" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD189" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE189" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AF189" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG189" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH189" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI189" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AJ189" t="s" s="2">
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/branches/master/StructureDefinition-item-settings.xlsx
+++ b/branches/master/StructureDefinition-item-settings.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-14T15:41:09+00:00</t>
+    <t>2022-04-14T16:01:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-item-settings.xlsx
+++ b/branches/master/StructureDefinition-item-settings.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-14T16:01:14+00:00</t>
+    <t>2022-04-14T16:18:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-item-settings.xlsx
+++ b/branches/master/StructureDefinition-item-settings.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-14T16:18:32+00:00</t>
+    <t>2022-04-14T16:39:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-item-settings.xlsx
+++ b/branches/master/StructureDefinition-item-settings.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-14T16:39:25+00:00</t>
+    <t>2022-04-14T17:25:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-item-settings.xlsx
+++ b/branches/master/StructureDefinition-item-settings.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5978" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6135" uniqueCount="155">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-14T17:25:25+00:00</t>
+    <t>2022-04-14T18:16:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -488,6 +488,9 @@
   <si>
     <t>subType</t>
   </si>
+  <si>
+    <t>orientation</t>
+  </si>
 </sst>
 </file>
 
@@ -791,7 +794,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ189"/>
+  <dimension ref="A1:AJ194"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -18113,7 +18116,7 @@
         <v>73</v>
       </c>
       <c r="J172" t="s" s="2">
-        <v>119</v>
+        <v>80</v>
       </c>
       <c r="K172" t="s" s="2">
         <v>104</v>
@@ -18617,7 +18620,7 @@
         <v>73</v>
       </c>
       <c r="J177" t="s" s="2">
-        <v>116</v>
+        <v>80</v>
       </c>
       <c r="K177" t="s" s="2">
         <v>104</v>
@@ -19702,15 +19705,17 @@
     </row>
     <row r="188">
       <c r="A188" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="B188" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="B188" t="s" s="2">
+        <v>154</v>
+      </c>
       <c r="C188" t="s" s="2">
         <v>73</v>
       </c>
       <c r="D188" s="2"/>
       <c r="E188" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F188" t="s" s="2">
         <v>79</v>
@@ -19725,24 +19730,22 @@
         <v>73</v>
       </c>
       <c r="J188" t="s" s="2">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="K188" t="s" s="2">
-        <v>98</v>
+        <v>154</v>
       </c>
       <c r="L188" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="M188" t="s" s="2">
-        <v>100</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="M188" s="2"/>
       <c r="N188" s="2"/>
       <c r="O188" t="s" s="2">
         <v>73</v>
       </c>
       <c r="P188" s="2"/>
       <c r="Q188" t="s" s="2">
-        <v>3</v>
+        <v>73</v>
       </c>
       <c r="R188" t="s" s="2">
         <v>73</v>
@@ -19784,27 +19787,27 @@
         <v>73</v>
       </c>
       <c r="AE188" t="s" s="2">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="AF188" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AG188" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AH188" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI188" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AJ188" t="s" s="2">
-        <v>102</v>
+        <v>73</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s" s="2">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="B189" s="2"/>
       <c r="C189" t="s" s="2">
@@ -19815,7 +19818,7 @@
         <v>74</v>
       </c>
       <c r="F189" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G189" t="s" s="2">
         <v>73</v>
@@ -19827,13 +19830,13 @@
         <v>73</v>
       </c>
       <c r="J189" t="s" s="2">
-        <v>133</v>
+        <v>80</v>
       </c>
       <c r="K189" t="s" s="2">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="L189" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="M189" s="2"/>
       <c r="N189" s="2"/>
@@ -19884,21 +19887,525 @@
         <v>73</v>
       </c>
       <c r="AE189" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF189" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG189" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH189" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI189" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ189" t="s" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="B190" s="2"/>
+      <c r="C190" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D190" s="2"/>
+      <c r="E190" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F190" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G190" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H190" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I190" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J190" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K190" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="L190" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="M190" s="2"/>
+      <c r="N190" s="2"/>
+      <c r="O190" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P190" s="2"/>
+      <c r="Q190" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R190" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S190" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T190" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U190" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V190" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W190" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X190" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y190" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z190" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA190" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AB190" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AC190" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD190" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AE190" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AF190" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG190" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH190" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI190" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ190" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="B191" s="2"/>
+      <c r="C191" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D191" s="2"/>
+      <c r="E191" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F191" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G191" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H191" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I191" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J191" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="K191" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="L191" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="M191" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="N191" s="2"/>
+      <c r="O191" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P191" s="2"/>
+      <c r="Q191" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="R191" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S191" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T191" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U191" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V191" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W191" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X191" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y191" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z191" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA191" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB191" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC191" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD191" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE191" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AF191" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG191" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH191" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI191" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ191" t="s" s="2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="B192" s="2"/>
+      <c r="C192" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D192" s="2"/>
+      <c r="E192" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F192" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G192" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H192" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I192" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J192" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K192" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="L192" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="M192" s="2"/>
+      <c r="N192" s="2"/>
+      <c r="O192" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P192" s="2"/>
+      <c r="Q192" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R192" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S192" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T192" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U192" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V192" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W192" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X192" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y192" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z192" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA192" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB192" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC192" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD192" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE192" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="AF189" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG189" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH189" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI189" t="s" s="2">
+      <c r="AF192" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG192" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH192" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI192" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="AJ189" t="s" s="2">
+      <c r="AJ192" t="s" s="2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="B193" s="2"/>
+      <c r="C193" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D193" s="2"/>
+      <c r="E193" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F193" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G193" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H193" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I193" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J193" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="K193" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="L193" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="M193" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="N193" s="2"/>
+      <c r="O193" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P193" s="2"/>
+      <c r="Q193" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="R193" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S193" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T193" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U193" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V193" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W193" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X193" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y193" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z193" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA193" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB193" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC193" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD193" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE193" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AF193" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG193" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH193" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI193" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ193" t="s" s="2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="B194" s="2"/>
+      <c r="C194" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D194" s="2"/>
+      <c r="E194" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F194" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G194" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H194" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I194" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J194" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="K194" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="L194" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="M194" s="2"/>
+      <c r="N194" s="2"/>
+      <c r="O194" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P194" s="2"/>
+      <c r="Q194" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R194" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S194" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T194" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U194" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V194" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W194" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X194" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y194" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z194" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA194" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB194" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC194" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD194" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE194" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AF194" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG194" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH194" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI194" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AJ194" t="s" s="2">
         <v>102</v>
       </c>
     </row>

--- a/branches/master/StructureDefinition-item-settings.xlsx
+++ b/branches/master/StructureDefinition-item-settings.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-19T19:24:07+00:00</t>
+    <t>2022-04-19T19:32:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-item-settings.xlsx
+++ b/branches/master/StructureDefinition-item-settings.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-19T19:32:38+00:00</t>
+    <t>2022-04-19T20:00:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-item-settings.xlsx
+++ b/branches/master/StructureDefinition-item-settings.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-19T20:00:50+00:00</t>
+    <t>2022-04-19T20:15:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-item-settings.xlsx
+++ b/branches/master/StructureDefinition-item-settings.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-19T20:15:26+00:00</t>
+    <t>2022-04-21T13:02:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
